--- a/weights.xlsx
+++ b/weights.xlsx
@@ -402,7 +402,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>0.0999999999999995</v>
+        <v>0.0999999999999996</v>
       </c>
     </row>
     <row r="2">
@@ -426,7 +426,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.00500000000000004</v>
+        <v>0.0050000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -434,7 +434,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.00499999999999996</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="6">
@@ -442,7 +442,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.00499999999999999</v>
+        <v>0.00500000000000005</v>
       </c>
     </row>
     <row r="7">
@@ -450,7 +450,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0999999999999992</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8">
@@ -458,7 +458,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.00499999999999998</v>
+        <v>0.00499999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -466,7 +466,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0274431637646263</v>
+        <v>0.0274431637646615</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0375568362353781</v>
+        <v>0.0375568362353378</v>
       </c>
     </row>
     <row r="11">
@@ -482,7 +482,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0999999999999981</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="12">
@@ -506,7 +506,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0999999999999995</v>
+        <v>0.100000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -514,7 +514,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0999999999999995</v>
+        <v>0.0999999999999987</v>
       </c>
     </row>
     <row r="16">

--- a/weights.xlsx
+++ b/weights.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">AMZN</t>
   </si>
@@ -21,51 +21,6 @@
   </si>
   <si>
     <t xml:space="preserve">INTC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLTR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OHI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NKE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AXP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CACI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MDT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MPLX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO</t>
   </si>
 </sst>
 </file>
@@ -401,145 +356,19 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="n">
-        <v>0.0999999999999996</v>
-      </c>
+      <c r="B1"/>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.0999999999999998</v>
-      </c>
+      <c r="B2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.0050000000000001</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.005</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.00500000000000005</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.00499999999999999</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.0274431637646615</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.0375568362353378</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.100000000000001</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.0999999999999987</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.005</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.00499999999999994</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.005</v>
-      </c>
+      <c r="B3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/weights.xlsx
+++ b/weights.xlsx
@@ -12,7 +12,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t xml:space="preserve">Ticker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weight</t>
+  </si>
   <si>
     <t xml:space="preserve">AMZN</t>
   </si>
@@ -21,6 +27,51 @@
   </si>
   <si>
     <t xml:space="preserve">INTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OHI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NKE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CACI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MDT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPLX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO</t>
   </si>
 </sst>
 </file>
@@ -356,19 +407,153 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1"/>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2"/>
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.285744577706335</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3"/>
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.194255422293665</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0500000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0100000000000006</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0100000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0100000000000002</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.00999999999999994</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.00999999999999989</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.00999999999999952</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.0100000000000001</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.0100000000000002</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/weights.xlsx
+++ b/weights.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t xml:space="preserve">Ticker</t>
   </si>
@@ -20,58 +20,97 @@
     <t xml:space="preserve">Weight</t>
   </si>
   <si>
+    <t xml:space="preserve">FDX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WMT</t>
+  </si>
+  <si>
     <t xml:space="preserve">AMZN</t>
   </si>
   <si>
-    <t xml:space="preserve">ADBE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INTC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BG</t>
+    <t xml:space="preserve">CORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LMT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTRS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SJM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MDLZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REGI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JNJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NRZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIRT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MDT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NKE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OHI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PFE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SYY</t>
   </si>
   <si>
     <t xml:space="preserve">GLTR</t>
   </si>
   <si>
-    <t xml:space="preserve">MET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OHI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NKE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AXP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CACI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MDT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MPLX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO</t>
+    <t xml:space="preserve">EMB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLT</t>
   </si>
 </sst>
 </file>
@@ -416,7 +455,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.285744577706335</v>
+        <v>0.0100000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -424,7 +463,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.194255422293665</v>
+        <v>0.0100000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -432,7 +471,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0500000000000001</v>
+        <v>0.401277292411096</v>
       </c>
     </row>
     <row r="5">
@@ -440,7 +479,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0100000000000006</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6">
@@ -448,7 +487,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0100000000000001</v>
+        <v>0.00999999999999948</v>
       </c>
     </row>
     <row r="7">
@@ -456,7 +495,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0100000000000002</v>
+        <v>0.00999999999999993</v>
       </c>
     </row>
     <row r="8">
@@ -464,7 +503,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01</v>
+        <v>0.0099999999999996</v>
       </c>
     </row>
     <row r="9">
@@ -472,7 +511,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01</v>
+        <v>0.00999999999999986</v>
       </c>
     </row>
     <row r="10">
@@ -480,7 +519,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>0.00999999999999994</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="11">
@@ -488,7 +527,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05</v>
+        <v>0.00999999999999913</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +535,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01</v>
+        <v>0.0099999999999997</v>
       </c>
     </row>
     <row r="13">
@@ -504,7 +543,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>0.01</v>
+        <v>0.308722707588904</v>
       </c>
     </row>
     <row r="14">
@@ -512,7 +551,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>0.00999999999999989</v>
+        <v>0.00999999999999974</v>
       </c>
     </row>
     <row r="15">
@@ -520,7 +559,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>0.00999999999999952</v>
+        <v>0.00999999999999994</v>
       </c>
     </row>
     <row r="16">
@@ -528,7 +567,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0100000000000001</v>
+        <v>0.00999999999999988</v>
       </c>
     </row>
     <row r="17">
@@ -536,7 +575,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0100000000000002</v>
+        <v>0.00999999999999993</v>
       </c>
     </row>
     <row r="18">
@@ -544,7 +583,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>0.15</v>
+        <v>0.00999999999999991</v>
       </c>
     </row>
     <row r="19">
@@ -552,7 +591,111 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.00999999999999973</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.00999999999999946</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.0100000000000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.00999999999999957</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.0100000000000003</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.0100000000000001</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.0100000000000007</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.00999999999999955</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.00999999999999992</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0100000000000022</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>

--- a/weights.xlsx
+++ b/weights.xlsx
@@ -455,7 +455,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0100000000000001</v>
+        <v>0.00500000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -463,7 +463,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0100000000000001</v>
+        <v>0.0500000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -471,7 +471,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.401277292411096</v>
+        <v>0.0499999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -479,7 +479,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01</v>
+        <v>0.00500000000000004</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0.00999999999999948</v>
+        <v>0.00499999999999996</v>
       </c>
     </row>
     <row r="7">
@@ -495,7 +495,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>0.00999999999999993</v>
+        <v>0.00500000000000014</v>
       </c>
     </row>
     <row r="8">
@@ -503,7 +503,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0099999999999996</v>
+        <v>0.00500000000000006</v>
       </c>
     </row>
     <row r="9">
@@ -511,7 +511,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>0.00999999999999986</v>
+        <v>0.00500000000000007</v>
       </c>
     </row>
     <row r="10">
@@ -519,7 +519,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>0.01</v>
+        <v>0.0500000000000004</v>
       </c>
     </row>
     <row r="11">
@@ -527,7 +527,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>0.00999999999999913</v>
+        <v>0.00499999999999996</v>
       </c>
     </row>
     <row r="12">
@@ -535,7 +535,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0099999999999997</v>
+        <v>0.00499999999999997</v>
       </c>
     </row>
     <row r="13">
@@ -543,7 +543,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>0.308722707588904</v>
+        <v>0.0500000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -551,7 +551,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>0.00999999999999974</v>
+        <v>0.0499999999999998</v>
       </c>
     </row>
     <row r="15">
@@ -559,7 +559,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>0.00999999999999994</v>
+        <v>0.0500000000000003</v>
       </c>
     </row>
     <row r="16">
@@ -567,7 +567,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>0.00999999999999988</v>
+        <v>0.00499999999999987</v>
       </c>
     </row>
     <row r="17">
@@ -575,7 +575,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>0.00999999999999993</v>
+        <v>0.00499999999999998</v>
       </c>
     </row>
     <row r="18">
@@ -583,7 +583,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>0.00999999999999991</v>
+        <v>0.00499999999999999</v>
       </c>
     </row>
     <row r="19">
@@ -591,7 +591,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01</v>
+        <v>0.0499999999999999</v>
       </c>
     </row>
     <row r="20">
@@ -599,7 +599,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>0.00999999999999973</v>
+        <v>0.00499999999999929</v>
       </c>
     </row>
     <row r="21">
@@ -607,7 +607,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>0.00999999999999946</v>
+        <v>0.0499999999999993</v>
       </c>
     </row>
     <row r="22">
@@ -615,7 +615,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>0.01</v>
+        <v>0.00500000000000001</v>
       </c>
     </row>
     <row r="23">
@@ -623,7 +623,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0100000000000001</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="24">
@@ -631,7 +631,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>0.00999999999999957</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0100000000000003</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="26">
@@ -647,7 +647,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01</v>
+        <v>0.0500000000000001</v>
       </c>
     </row>
     <row r="27">
@@ -655,7 +655,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0100000000000001</v>
+        <v>0.00499999999999993</v>
       </c>
     </row>
     <row r="28">
@@ -663,7 +663,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0100000000000007</v>
+        <v>0.00499999999999974</v>
       </c>
     </row>
     <row r="29">
@@ -671,7 +671,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="n">
-        <v>0.00999999999999955</v>
+        <v>0.00499999999999997</v>
       </c>
     </row>
     <row r="30">
@@ -679,7 +679,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="n">
-        <v>0.00999999999999992</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="31">
@@ -687,7 +687,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0100000000000022</v>
+        <v>0.0499999999999999</v>
       </c>
     </row>
     <row r="32">
@@ -695,7 +695,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="n">
-        <v>0.01</v>
+        <v>0.255000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/weights.xlsx
+++ b/weights.xlsx
@@ -455,7 +455,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00500000000000001</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="3">
@@ -463,7 +463,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0500000000000001</v>
+        <v>0.0500000000000004</v>
       </c>
     </row>
     <row r="4">
@@ -471,7 +471,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0499999999999999</v>
+        <v>0.0499999999999998</v>
       </c>
     </row>
     <row r="5">
@@ -479,7 +479,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.00500000000000004</v>
+        <v>0.00500000000000005</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0.00499999999999996</v>
+        <v>0.0150000000000016</v>
       </c>
     </row>
     <row r="7">
@@ -495,7 +495,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>0.00500000000000014</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="8">
@@ -503,7 +503,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>0.00500000000000006</v>
+        <v>0.00499999999999982</v>
       </c>
     </row>
     <row r="9">
@@ -511,7 +511,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>0.00500000000000007</v>
+        <v>0.00500000000000028</v>
       </c>
     </row>
     <row r="10">
@@ -519,7 +519,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0500000000000004</v>
+        <v>0.0499999999999994</v>
       </c>
     </row>
     <row r="11">
@@ -527,7 +527,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>0.00499999999999996</v>
+        <v>0.00500000000000009</v>
       </c>
     </row>
     <row r="12">
@@ -535,7 +535,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>0.00499999999999997</v>
+        <v>0.00500000000000002</v>
       </c>
     </row>
     <row r="13">
@@ -543,7 +543,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0500000000000001</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="14">
@@ -551,7 +551,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0499999999999998</v>
+        <v>0.0500000000000004</v>
       </c>
     </row>
     <row r="15">
@@ -559,7 +559,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0500000000000003</v>
+        <v>0.0499999999999995</v>
       </c>
     </row>
     <row r="16">
@@ -567,7 +567,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>0.00499999999999987</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="17">
@@ -575,7 +575,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>0.00499999999999998</v>
+        <v>0.00500000000000003</v>
       </c>
     </row>
     <row r="18">
@@ -591,7 +591,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0499999999999999</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="20">
@@ -599,7 +599,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>0.00499999999999929</v>
+        <v>0.00500000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -607,7 +607,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0499999999999993</v>
+        <v>0.0500000000000003</v>
       </c>
     </row>
     <row r="22">
@@ -615,7 +615,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>0.00500000000000001</v>
+        <v>0.0500000000000001</v>
       </c>
     </row>
     <row r="23">
@@ -623,7 +623,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>0.005</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="24">
@@ -631,7 +631,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>0.005</v>
+        <v>0.00500000000000003</v>
       </c>
     </row>
     <row r="25">
@@ -647,7 +647,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0500000000000001</v>
+        <v>0.0500000000000004</v>
       </c>
     </row>
     <row r="27">
@@ -655,7 +655,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>0.00499999999999993</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="28">
@@ -663,7 +663,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="n">
-        <v>0.00499999999999974</v>
+        <v>0.00500000000000014</v>
       </c>
     </row>
     <row r="29">
@@ -671,7 +671,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="n">
-        <v>0.00499999999999997</v>
+        <v>0.00500000000000002</v>
       </c>
     </row>
     <row r="30">
@@ -679,7 +679,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="n">
-        <v>0.15</v>
+        <v>0.149999999999998</v>
       </c>
     </row>
     <row r="31">
@@ -687,7 +687,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0499999999999999</v>
+        <v>0.0499999999999998</v>
       </c>
     </row>
     <row r="32">
@@ -695,7 +695,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="n">
-        <v>0.255000000000001</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>

--- a/weights.xlsx
+++ b/weights.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve">Ticker</t>
   </si>
@@ -20,6 +20,12 @@
     <t xml:space="preserve">Weight</t>
   </si>
   <si>
+    <t xml:space="preserve">TLT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLTR</t>
+  </si>
+  <si>
     <t xml:space="preserve">FDX</t>
   </si>
   <si>
@@ -68,49 +74,40 @@
     <t xml:space="preserve">TPH</t>
   </si>
   <si>
+    <t xml:space="preserve">VIRT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MDT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NKE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PFE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SYY</t>
+  </si>
+  <si>
     <t xml:space="preserve">NRZ</t>
   </si>
   <si>
-    <t xml:space="preserve">VIRT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AXP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MDT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NKE</t>
-  </si>
-  <si>
     <t xml:space="preserve">OHI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PFE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SYY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLTR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TLT</t>
   </si>
 </sst>
 </file>
@@ -455,7 +452,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.005</v>
+        <v>0.1212</v>
       </c>
     </row>
     <row r="3">
@@ -463,7 +460,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0500000000000004</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4">
@@ -471,7 +468,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0499999999999998</v>
+        <v>0.0304</v>
       </c>
     </row>
     <row r="5">
@@ -479,7 +476,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.00500000000000005</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +484,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0150000000000016</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7">
@@ -503,7 +500,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>0.00499999999999982</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="9">
@@ -511,7 +508,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>0.00500000000000028</v>
+        <v>0.0232</v>
       </c>
     </row>
     <row r="10">
@@ -519,7 +516,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0499999999999994</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="11">
@@ -527,7 +524,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>0.00500000000000009</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="12">
@@ -535,7 +532,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>0.00500000000000002</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="13">
@@ -543,7 +540,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="14">
@@ -551,7 +548,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0500000000000004</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="15">
@@ -559,7 +556,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0499999999999995</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="16">
@@ -567,7 +564,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>0.005</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="17">
@@ -575,7 +572,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>0.00500000000000003</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="18">
@@ -583,7 +580,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>0.00499999999999999</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="19">
@@ -599,7 +596,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>0.00500000000000001</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="21">
@@ -607,7 +604,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0500000000000003</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="22">
@@ -615,7 +612,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0500000000000001</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="23">
@@ -623,7 +620,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05</v>
+        <v>0.0404</v>
       </c>
     </row>
     <row r="24">
@@ -631,7 +628,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>0.00500000000000003</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="25">
@@ -647,7 +644,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0500000000000004</v>
+        <v>0.0139</v>
       </c>
     </row>
     <row r="27">
@@ -655,7 +652,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>0.005</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="28">
@@ -663,7 +660,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="n">
-        <v>0.00500000000000014</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="29">
@@ -671,7 +668,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="n">
-        <v>0.00500000000000002</v>
+        <v>0.0058</v>
       </c>
     </row>
     <row r="30">
@@ -679,7 +676,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="n">
-        <v>0.149999999999998</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="31">
@@ -687,15 +684,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0499999999999998</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0.2</v>
+        <v>0.005</v>
       </c>
     </row>
   </sheetData>

--- a/weights.xlsx
+++ b/weights.xlsx
@@ -6,13 +6,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Weights" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Stats" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t xml:space="preserve">Ticker</t>
   </si>
@@ -26,6 +27,18 @@
     <t xml:space="preserve">GLTR</t>
   </si>
   <si>
+    <t xml:space="preserve">IAU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPLT</t>
+  </si>
+  <si>
     <t xml:space="preserve">FDX</t>
   </si>
   <si>
@@ -108,6 +121,24 @@
   </si>
   <si>
     <t xml:space="preserve">OHI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected Annualized Return</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard Deviation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portfolio Utility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1933</t>
   </si>
 </sst>
 </file>
@@ -452,7 +483,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1212</v>
+        <v>0.1622</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +499,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -476,7 +507,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -484,7 +515,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -492,7 +523,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -500,7 +531,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="9">
@@ -508,7 +539,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0232</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="10">
@@ -516,7 +547,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="11">
@@ -532,7 +563,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="13">
@@ -556,7 +587,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="16">
@@ -572,7 +603,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="18">
@@ -588,7 +619,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>0.005</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="20">
@@ -596,7 +627,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>0.005</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="21">
@@ -604,7 +635,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>0.005</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="22">
@@ -612,7 +643,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="23">
@@ -620,7 +651,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0404</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +659,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>0.05</v>
+        <v>0.0428</v>
       </c>
     </row>
     <row r="25">
@@ -644,7 +675,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0139</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="27">
@@ -652,7 +683,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="28">
@@ -660,7 +691,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="n">
-        <v>0.005</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="29">
@@ -668,7 +699,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0058</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="30">
@@ -676,7 +707,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="n">
-        <v>0.005</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="31">
@@ -684,7 +715,77 @@
         <v>31</v>
       </c>
       <c r="B31" t="n">
-        <v>0.005</v>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
